--- a/biology/Botanique/Barleria_obtusa/Barleria_obtusa.xlsx
+++ b/biology/Botanique/Barleria_obtusa/Barleria_obtusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barleria obtusa est une plante à fleurs du genre Barleria de la famille des Acanthaceae.
-Sa description en latin fut faite pour la première fois par Christian Gottfried Daniel Nees von Esenbeck en 1841 dans la revue "Linnaea", volume 15, page 358, publiée par Diederich Franz Leonhard von Schlechtendal[1].
+Sa description en latin fut faite pour la première fois par Christian Gottfried Daniel Nees von Esenbeck en 1841 dans la revue "Linnaea", volume 15, page 358, publiée par Diederich Franz Leonhard von Schlechtendal.
 Elle pousse à l’état naturel en lisière de forêt des régions de régime pluvieux d’été, en Afrique australe.
 Elle est extensivement cultivée comme buisson décoratif de jardin.
 En Afrique tropicale les feuilles sont cuites comme légumes et la plante est utilisée à des fins médicinales.
@@ -515,7 +527,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Barleria diandra Hochst. &amp; Steud. ex Nees [Invalid] , 1847
 Barleria uitenagensis Hochst. ex Nees , 1847</t>
